--- a/7sem/Управление IT-проектами (Евлаш)/RECVY.xlsx
+++ b/7sem/Управление IT-проектами (Евлаш)/RECVY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimat\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course4\7sem\Управление IT-проектами (Евлаш)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Содержание работ</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Чистая прибыль</t>
   </si>
   <si>
-    <t>Цена</t>
-  </si>
-  <si>
     <t>Рентабельность</t>
   </si>
   <si>
@@ -159,6 +156,18 @@
   </si>
   <si>
     <t>LQA</t>
+  </si>
+  <si>
+    <t>Налог на прибыль</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Цена с НДС</t>
+  </si>
+  <si>
+    <t>Просто цена</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -296,6 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +633,7 @@
     <col min="3" max="3" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -634,160 +644,130 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6">
         <v>102</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6">
         <v>132</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <v>44</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6">
         <v>140</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>124</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -795,42 +775,42 @@
         <v>698</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="J15" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -865,14 +845,10 @@
       <c r="J16" s="1">
         <v>82</v>
       </c>
-      <c r="K16">
-        <f>SUM(B16:J16)</f>
-        <v>698</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -911,22 +887,22 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="8">
-        <f>B18*0.9</f>
-        <v>8958.6</v>
+        <f>B18*0.09</f>
+        <v>895.86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
         <f>(B18+B19)*(0.34+0.006)</f>
-        <v>6543.7596000000003</v>
+        <v>3754.0515600000003</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -953,7 +929,7 @@
       </c>
       <c r="B23" s="8">
         <f>B18+B19+B20+B21+B22</f>
-        <v>32424.159599999999</v>
+        <v>21571.71156</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -965,16 +941,16 @@
       </c>
       <c r="B25" s="8">
         <f>B23</f>
-        <v>32424.159599999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21571.71156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="8">
         <f>B25*0.1</f>
-        <v>3242.4159600000003</v>
+        <v>2157.1711559999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -983,41 +959,68 @@
       </c>
       <c r="B27" s="8">
         <f>B25+B26</f>
-        <v>35666.575559999997</v>
+        <v>23728.882716</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="7">
         <f>0.2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="8">
+        <f>B27*B29</f>
+        <v>4745.7765432000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="8">
-        <f>B27*B28</f>
-        <v>7133.3151120000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="8">
-        <f>(B27+B29)*(1+0.2)</f>
-        <v>51359.868806399994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="B31" s="8">
+        <f>B30*(1-B28)</f>
+        <v>3796.6212345600006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="8">
+        <f>(B27+B30)*1.2</f>
+        <v>34169.591111039997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="17">
+        <f>(B27+B30)</f>
+        <v>28474.659259200002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>